--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_G.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_G.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22920" windowHeight="4785"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23610" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="A4縦3人印刷" sheetId="6" r:id="rId1"/>
@@ -201,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +211,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -223,14 +226,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -637,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:W3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1"/>
@@ -658,70 +661,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="N1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>9999999999</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
     </row>
     <row r="3" spans="1:28" ht="11.25" customHeight="1">
       <c r="M3" s="9"/>
@@ -738,66 +741,62 @@
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7" t="s">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7" t="s">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="11.25" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="8" spans="1:28" ht="11.25" customHeight="1">
+      <c r="B8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="R1:X2"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
@@ -810,6 +809,13 @@
     <mergeCell ref="N1:Q2"/>
     <mergeCell ref="M3:W3"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="R1:X2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_G.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_G.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="23610" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23115" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="A4縦3人印刷" sheetId="6" r:id="rId1"/>
@@ -211,29 +211,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1"/>
@@ -679,12 +679,12 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
       <c r="R1" s="7" t="s">
         <v>6</v>
       </c>
@@ -714,10 +714,10 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -727,65 +727,65 @@
       <c r="X2" s="7"/>
     </row>
     <row r="3" spans="1:28" ht="11.25" customHeight="1">
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="s">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
     <row r="5" spans="1:28" ht="11.25" customHeight="1">
       <c r="B5" s="4"/>
@@ -793,10 +793,17 @@
       <c r="D5" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="11.25" customHeight="1">
-      <c r="B8" s="10"/>
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="R1:X2"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
@@ -809,13 +816,6 @@
     <mergeCell ref="N1:Q2"/>
     <mergeCell ref="M3:W3"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="R1:X2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_G.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_G.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="23115" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22860" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="A4縦3人印刷" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ＮＮＮＮＮＮ</t>
     <phoneticPr fontId="4"/>
@@ -60,7 +60,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>給与支給明細書</t>
+    <t>remark</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>給与明細書</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -68,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +132,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
-      <sz val="12"/>
+      <sz val="17"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
       <family val="1"/>
@@ -137,19 +157,11 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="16"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
       <family val="1"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,16 +188,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,39 +213,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -286,15 +301,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>234973</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>225681</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>77260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>45619</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>36327</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>77260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -304,8 +319,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3300291" y="220135"/>
-          <a:ext cx="2875964" cy="0"/>
+          <a:off x="3547815" y="365333"/>
+          <a:ext cx="2877232" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -335,15 +350,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>233985</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>229339</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>103927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>44631</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>39985</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>103927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -353,8 +368,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3299303" y="246802"/>
-          <a:ext cx="2875964" cy="0"/>
+          <a:off x="3551473" y="392000"/>
+          <a:ext cx="2877232" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -648,174 +663,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1"/>
   <cols>
-    <col min="1" max="27" width="3.375" customWidth="1"/>
-    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="1" max="28" width="3.375" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:30" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="2" spans="1:30" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="N1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-    </row>
-    <row r="2" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A2" s="6">
-        <v>9999999999</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
     </row>
-    <row r="3" spans="1:28" ht="11.25" customHeight="1">
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
+    <row r="3" spans="1:30" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B3" s="10">
+        <v>9999999999</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:30" customFormat="1" ht="5.25" customHeight="1">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:30" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B5" s="3"/>
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
-    <row r="5" spans="1:28" ht="11.25" customHeight="1">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+    <row r="6" spans="1:30" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
-    <row r="8" spans="1:28" ht="11.25" customHeight="1">
-      <c r="B8" s="3"/>
+    <row r="7" spans="1:30" ht="11.25" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
+    <row r="9" spans="1:30" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="13" spans="1:30" customFormat="1" ht="11.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="R1:X2"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="M3:W3"/>
-    <mergeCell ref="N4:P4"/>
+  <mergeCells count="11">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="R2:Y3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_G.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_G.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22860" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23115" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="A4縦3人印刷" sheetId="6" r:id="rId1"/>
@@ -229,9 +229,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,12 +246,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -655,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -666,40 +666,40 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="9.9499999999999993" customHeight="1"/>
   <cols>
     <col min="1" max="28" width="3.375" customWidth="1"/>
     <col min="29" max="29" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="2" spans="1:30" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:30" customFormat="1" ht="9.9499999999999993" customHeight="1"/>
+    <row r="2" spans="1:30" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="O2" s="8" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="O2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
       <c r="R2" s="11" t="s">
         <v>6</v>
       </c>
@@ -711,28 +711,28 @@
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
     </row>
-    <row r="3" spans="1:30" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B3" s="10">
+    <row r="3" spans="1:30" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B3" s="7">
         <v>9999999999</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
@@ -742,54 +742,58 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
     </row>
-    <row r="4" spans="1:30" customFormat="1" ht="5.25" customHeight="1">
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
+    <row r="4" spans="1:30" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" ht="11.25" customHeight="1">
+    <row r="5" spans="1:30" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:30" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+    <row r="6" spans="1:30" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:30" ht="11.25" customHeight="1">
+    <row r="7" spans="1:30" ht="9.9499999999999993" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:30" customFormat="1" ht="11.25" customHeight="1">
+    <row r="8" spans="1:30" ht="9.9499999999999993" customHeight="1"/>
+    <row r="9" spans="1:30" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="C9" s="2"/>
     </row>
-    <row r="13" spans="1:30" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="10" spans="1:30" ht="9.9499999999999993" customHeight="1"/>
+    <row r="11" spans="1:30" ht="9.9499999999999993" customHeight="1"/>
+    <row r="12" spans="1:30" ht="9.9499999999999993" customHeight="1"/>
+    <row r="13" spans="1:30" customFormat="1" ht="9.9499999999999993" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="N4:X4"/>
     <mergeCell ref="O2:Q3"/>
     <mergeCell ref="R2:Y3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
